--- a/HW1/inputs_school_f.xlsx
+++ b/HW1/inputs_school_f.xlsx
@@ -1236,8 +1236,8 @@
   <sheetPr/>
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1332,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C3" s="16">
         <v>600</v>
